--- a/frontend/public/template_xlsx_resumen.xlsx
+++ b/frontend/public/template_xlsx_resumen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITSystems\ContabilidadISV\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C538ED31-C6EC-48FC-A270-5D41A17927F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89C368E-C014-4E71-9D89-7253B227E4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen por Cliente" sheetId="1" r:id="rId1"/>
@@ -188,6 +188,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;L&quot;* #,##0.00_-;\-&quot;L&quot;* #,##0.00_-;_-&quot;L&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -247,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -256,18 +259,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,39 +670,39 @@
   <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:D83"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="8.59765625" customWidth="1"/>
+    <col min="2" max="2" width="29.59765625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -705,7 +710,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -713,7 +718,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -725,259 +730,343 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
